--- a/_src/PCA_feature_selection.xlsx
+++ b/_src/PCA_feature_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lepardandlepard-my.sharepoint.com/personal/jamie_lepardandlepard_com/Documents/Data Science/LighthouseLabs/Python_Projects/Prolonged_LOS_Project/_src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{80548C9C-6B98-40E1-A3F6-4E39C4D7D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7448F1-F786-4C4A-9B40-63E94608E0E7}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{80548C9C-6B98-40E1-A3F6-4E39C4D7D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A87E96-C152-4BE7-A8E1-64070ED51CA2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BAE31853-EAB5-49AA-A856-83D1ED151006}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="186">
   <si>
     <t>Feature Group: demographic_columns, Principal Component 1 Summary:</t>
   </si>
@@ -468,6 +468,153 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>COLUMS to RETAIN</t>
+  </si>
+  <si>
+    <t>'asa_3.0',</t>
+  </si>
+  <si>
+    <t>'asa_2.0',</t>
+  </si>
+  <si>
+    <t>'weight',</t>
+  </si>
+  <si>
+    <t>'age',</t>
+  </si>
+  <si>
+    <t>'height',</t>
+  </si>
+  <si>
+    <t>'',</t>
+  </si>
+  <si>
+    <t>'anesth_duration',</t>
+  </si>
+  <si>
+    <t>'or_duration',</t>
+  </si>
+  <si>
+    <t>'icu_visit',</t>
+  </si>
+  <si>
+    <t>'department_OT',</t>
+  </si>
+  <si>
+    <t>'antype_MAC',</t>
+  </si>
+  <si>
+    <t>'antype_Neuraxial',</t>
+  </si>
+  <si>
+    <t>'department_OS',</t>
+  </si>
+  <si>
+    <t>'department_GS',</t>
+  </si>
+  <si>
+    <t>'department_OG',</t>
+  </si>
+  <si>
+    <t>'department_OL',</t>
+  </si>
+  <si>
+    <t>'department_NS',</t>
+  </si>
+  <si>
+    <t>'department_CTS',</t>
+  </si>
+  <si>
+    <t>'department_UR',</t>
+  </si>
+  <si>
+    <t>'ast',</t>
+  </si>
+  <si>
+    <t>'alt',</t>
+  </si>
+  <si>
+    <t>'total_bilirubin',</t>
+  </si>
+  <si>
+    <t>'lymphocyte',</t>
+  </si>
+  <si>
+    <t>'wbc',</t>
+  </si>
+  <si>
+    <t>'art_sbp',</t>
+  </si>
+  <si>
+    <t>'pmean',</t>
+  </si>
+  <si>
+    <t>'art_mbp',</t>
+  </si>
+  <si>
+    <t>'vt',</t>
+  </si>
+  <si>
+    <t>'pip',</t>
+  </si>
+  <si>
+    <t>'rr',</t>
+  </si>
+  <si>
+    <t>'hr',</t>
+  </si>
+  <si>
+    <t>'chloride',</t>
+  </si>
+  <si>
+    <t>'hb',</t>
+  </si>
+  <si>
+    <t>'sodium',</t>
+  </si>
+  <si>
+    <t>'hco3',</t>
+  </si>
+  <si>
+    <t>'platelet',</t>
+  </si>
+  <si>
+    <t>'category_id_08D',</t>
+  </si>
+  <si>
+    <t>'category_id_0HB',</t>
+  </si>
+  <si>
+    <t>'category_id_09Q',</t>
+  </si>
+  <si>
+    <t>'category_id_08R',</t>
+  </si>
+  <si>
+    <t>'category_id_0DB',</t>
+  </si>
+  <si>
+    <t>'category_id_0QS',</t>
+  </si>
+  <si>
+    <t>'category_id_0DT',</t>
+  </si>
+  <si>
+    <t>'category_id_0W3',</t>
+  </si>
+  <si>
+    <t>'category_id_07L',</t>
+  </si>
+  <si>
+    <t>'category_id_0FT',</t>
+  </si>
+  <si>
+    <t>'category_id_0VB',</t>
+  </si>
+  <si>
+    <t>'category_id_09P',</t>
   </si>
 </sst>
 </file>
@@ -623,11 +770,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,15 +781,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -755,6 +901,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -772,9 +921,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1013,16 +1159,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51767FF0-067B-441D-B1C7-F6E9C2F0A15B}" name="Table2" displayName="Table2" ref="B7:F23" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51767FF0-067B-441D-B1C7-F6E9C2F0A15B}" name="Table2" displayName="Table2" ref="B7:F23" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B7:F23" xr:uid="{51767FF0-067B-441D-B1C7-F6E9C2F0A15B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FDFB7284-BD5F-4475-91DB-A6778448F99F}" name="Principle Component "/>
-    <tableColumn id="2" xr3:uid="{48313FEA-A642-4CC6-B011-852F216B5EC7}" name="Rank" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{48313FEA-A642-4CC6-B011-852F216B5EC7}" name="Rank" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{3306AB75-04BD-4CAA-9640-56F5C9931CD3}" name="Loading"/>
     <tableColumn id="4" xr3:uid="{FE739C7C-7EB8-4736-93E8-57FB4B27F69A}" name=" "/>
     <tableColumn id="5" xr3:uid="{81269B2E-70EA-485D-BCCA-BE7ED789D23E}" name="Feature"/>
@@ -1042,10 +1184,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{91D37525-9FFC-41DD-BDB9-0AE4A2E5EF57}" name="Table257" displayName="Table257" ref="B7:F38" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{91D37525-9FFC-41DD-BDB9-0AE4A2E5EF57}" name="Table257" displayName="Table257" ref="B7:F38" totalsRowShown="0" headerRowDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{42F22F24-BCB4-4A5F-ABE5-E078C5248438}" name="Principle Component "/>
-    <tableColumn id="2" xr3:uid="{51D522AC-1384-4855-ADBB-4AFE62C3287E}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{51D522AC-1384-4855-ADBB-4AFE62C3287E}" name="Rank" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{A0E9E009-ADAE-445D-9BD7-FA15C24514B1}" name="Loading"/>
     <tableColumn id="4" xr3:uid="{755D5815-C2B7-4118-8565-6D3C325541B0}" name=" "/>
     <tableColumn id="5" xr3:uid="{258F3912-4BBB-494C-8EEC-9417FE6C1CFC}" name="Feature"/>
@@ -1055,7 +1197,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E3E3D4BC-140B-4F59-9510-17DA875B244F}" name="Table368" displayName="Table368" ref="I7:I24" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E3E3D4BC-140B-4F59-9510-17DA875B244F}" name="Table368" displayName="Table368" ref="I7:I24" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="I7:I24" xr:uid="{1F76B318-F4F6-4185-8949-9765BD7A0C06}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{ADF803AE-7226-4686-A6EF-CC652213D52D}" name="Unique Features"/>
@@ -1065,10 +1207,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BD2B33E-131D-4F54-A735-B9FC586137DA}" name="Table25" displayName="Table25" ref="B7:F22" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BD2B33E-131D-4F54-A735-B9FC586137DA}" name="Table25" displayName="Table25" ref="B7:F22" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{99716379-BECC-4118-80AE-48EA78D75485}" name="Principle Component "/>
-    <tableColumn id="2" xr3:uid="{88E1ED81-EDF9-4D84-99AC-11345465AB11}" name="Rank" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{88E1ED81-EDF9-4D84-99AC-11345465AB11}" name="Rank" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{43B1E2C6-C5B2-4521-B7BA-A38C7C89BCDE}" name="Loading"/>
     <tableColumn id="4" xr3:uid="{60710727-FB03-407B-905C-DA89F8D6394F}" name=" "/>
     <tableColumn id="5" xr3:uid="{B56D36F9-21DD-411F-A359-7A79D4BE39ED}" name="Feature"/>
@@ -1078,7 +1220,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F76B318-F4F6-4185-8949-9765BD7A0C06}" name="Table36" displayName="Table36" ref="I7:I19" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F76B318-F4F6-4185-8949-9765BD7A0C06}" name="Table36" displayName="Table36" ref="I7:I19" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="I7:I19" xr:uid="{1F76B318-F4F6-4185-8949-9765BD7A0C06}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{947FF6C9-59BC-4217-9C23-457A17A07E0E}" name="Unique Features"/>
@@ -1384,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B27EC5-0E29-44C2-92BA-15FB03D69EC5}">
-  <dimension ref="D9:I97"/>
+  <dimension ref="D9:BF97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:G97"/>
+    <sheetView tabSelected="1" topLeftCell="S46" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,374 +1543,374 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="20"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="19"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="20"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="19"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="12" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="20"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="12" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="20"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="19"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="20"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="19"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="12" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="20"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="19"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="12" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="20"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="19"/>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="20"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="14" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="19"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="12" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D27" s="20"/>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D28" s="19"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D29" s="20"/>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="14" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="19"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="12" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="20"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="14" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="19"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="12" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="20"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="14" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="19"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="12" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="20"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="14" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D36" s="19"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="12" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D37" s="20"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="14" t="s">
+      <c r="D37" s="19"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D38" s="19"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="12" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D39" s="20"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="14" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D40" s="21"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="8" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
@@ -1777,438 +1919,594 @@
       <c r="F48" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E49" s="14" t="s">
+      <c r="G48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E49" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="str">
-        <f>_xlfn.CONCAT(E49,$F$48)</f>
-        <v>asa_3.0,</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E50" s="12" t="s">
+        <f>_xlfn.CONCAT("'",E49,"'",$F$48)</f>
+        <v>'asa_3.0',</v>
+      </c>
+      <c r="J49" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" t="s">
+        <v>139</v>
+      </c>
+      <c r="L49" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49" t="s">
+        <v>141</v>
+      </c>
+      <c r="N49" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>145</v>
+      </c>
+      <c r="R49" t="s">
+        <v>146</v>
+      </c>
+      <c r="S49" t="s">
+        <v>147</v>
+      </c>
+      <c r="T49" t="s">
+        <v>148</v>
+      </c>
+      <c r="U49" t="s">
+        <v>149</v>
+      </c>
+      <c r="V49" t="s">
+        <v>150</v>
+      </c>
+      <c r="W49" t="s">
+        <v>151</v>
+      </c>
+      <c r="X49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E50" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" ref="G50:G97" si="0">_xlfn.CONCAT(E50,$F$48)</f>
-        <v>asa_2.0,</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E51" s="14" t="s">
+        <f t="shared" ref="G50:G97" si="0">_xlfn.CONCAT("'",E50,"'",$F$48)</f>
+        <v>'asa_2.0',</v>
+      </c>
+    </row>
+    <row r="51" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E51" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>weight,</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E52" s="12" t="s">
+        <v>'weight',</v>
+      </c>
+    </row>
+    <row r="52" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E52" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>age,</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E53" s="14" t="s">
+        <v>'age',</v>
+      </c>
+    </row>
+    <row r="53" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E53" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>height,</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E55" s="14" t="s">
+        <v>'height',</v>
+      </c>
+    </row>
+    <row r="54" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E54" s="11"/>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="55" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>anesth_duration,</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E56" s="12" t="s">
+        <v>'anesth_duration',</v>
+      </c>
+    </row>
+    <row r="56" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E56" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>or_duration,</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E57" s="14" t="s">
+        <v>'or_duration',</v>
+      </c>
+    </row>
+    <row r="57" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E57" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>icu_visit,</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E58" s="12" t="s">
+        <v>'icu_visit',</v>
+      </c>
+    </row>
+    <row r="58" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E58" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>department_OT,</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E59" s="14" t="s">
+        <v>'department_OT',</v>
+      </c>
+    </row>
+    <row r="59" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E59" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>antype_MAC,</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E60" s="12" t="s">
+        <v>'antype_MAC',</v>
+      </c>
+    </row>
+    <row r="60" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E60" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>antype_Neuraxial,</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E61" s="14" t="s">
+        <v>'antype_Neuraxial',</v>
+      </c>
+    </row>
+    <row r="61" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E61" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>department_OS,</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E62" s="12" t="s">
+        <v>'department_OS',</v>
+      </c>
+    </row>
+    <row r="62" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E62" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>department_GS,</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E63" s="14" t="s">
+        <v>'department_GS',</v>
+      </c>
+    </row>
+    <row r="63" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E63" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>department_OG,</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E64" s="12" t="s">
+        <v>'department_OG',</v>
+      </c>
+    </row>
+    <row r="64" spans="5:58" x14ac:dyDescent="0.35">
+      <c r="E64" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>department_OL,</v>
+        <v>'department_OL',</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>department_NS,</v>
+        <v>'department_NS',</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>department_CTS,</v>
+        <v>'department_CTS',</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>department_UR,</v>
+        <v>'department_UR',</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
-        <v>ast,</v>
+        <v>'ast',</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
-        <v>alt,</v>
+        <v>'alt',</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
-        <v>total_bilirubin,</v>
+        <v>'total_bilirubin',</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>53</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
-        <v>lymphocyte,</v>
+        <v>'lymphocyte',</v>
       </c>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
-        <v>wbc,</v>
+        <v>'wbc',</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="0"/>
-        <v>art_sbp,</v>
+        <v>'art_sbp',</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="13" t="s">
         <v>66</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="0"/>
-        <v>pmean,</v>
+        <v>'pmean',</v>
       </c>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="0"/>
-        <v>art_mbp,</v>
+        <v>'art_mbp',</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="0"/>
-        <v>vt,</v>
+        <v>'vt',</v>
       </c>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="0"/>
-        <v>pip,</v>
+        <v>'pip',</v>
       </c>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="13" t="s">
         <v>73</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="0"/>
-        <v>rr,</v>
+        <v>'rr',</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="0"/>
-        <v>hr,</v>
+        <v>'hr',</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="0"/>
-        <v>chloride,</v>
+        <v>'chloride',</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="11" t="s">
         <v>72</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="0"/>
-        <v>hb,</v>
+        <v>'hb',</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="0"/>
-        <v>sodium,</v>
+        <v>'sodium',</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="11" t="s">
         <v>62</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="0"/>
-        <v>hco3,</v>
+        <v>'hco3',</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="0"/>
-        <v>platelet,</v>
+        <v>'platelet',</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E85" s="12"/>
+      <c r="E85" s="11"/>
+      <c r="G85" t="str">
+        <f t="shared" si="0"/>
+        <v>'',</v>
+      </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="13" t="s">
         <v>75</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_08D,</v>
+        <v>'category_id_08D',</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0HB,</v>
+        <v>'category_id_0HB',</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="13" t="s">
         <v>77</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_09Q,</v>
+        <v>'category_id_09Q',</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_08R,</v>
+        <v>'category_id_08R',</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="13" t="s">
         <v>91</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0DB,</v>
+        <v>'category_id_0DB',</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="11" t="s">
         <v>92</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0QS,</v>
+        <v>'category_id_0QS',</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="13" t="s">
         <v>99</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0DT,</v>
+        <v>'category_id_0DT',</v>
       </c>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0W3,</v>
+        <v>'category_id_0W3',</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_07L,</v>
+        <v>'category_id_07L',</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0FT,</v>
+        <v>'category_id_0FT',</v>
       </c>
     </row>
     <row r="96" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_0VB,</v>
+        <v>'category_id_0VB',</v>
       </c>
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="0"/>
-        <v>category_id_09P,</v>
+        <v>'category_id_09P',</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2739,23 +3037,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
       <c r="I7" s="1" t="s">
         <v>125</v>
       </c>
@@ -2764,7 +3062,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
@@ -2781,7 +3079,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
@@ -2798,7 +3096,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
@@ -2815,7 +3113,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>12</v>
       </c>
       <c r="D11">
@@ -2832,7 +3130,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>17</v>
       </c>
       <c r="D12">
@@ -2849,7 +3147,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>18</v>
       </c>
       <c r="D13">
@@ -2866,7 +3164,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>11</v>
       </c>
       <c r="D14">
@@ -2883,7 +3181,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>18</v>
       </c>
       <c r="D15">
@@ -2900,7 +3198,7 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>11</v>
       </c>
       <c r="D16">
@@ -2917,7 +3215,7 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>6</v>
       </c>
       <c r="D17">
@@ -2934,7 +3232,7 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>9</v>
       </c>
       <c r="D18">
@@ -2951,7 +3249,7 @@
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
@@ -2968,7 +3266,7 @@
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
@@ -2985,7 +3283,7 @@
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>8</v>
       </c>
       <c r="D21">
@@ -2999,7 +3297,7 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
@@ -3013,7 +3311,7 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>16</v>
       </c>
       <c r="D23">
@@ -3065,33 +3363,33 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>13</v>
       </c>
       <c r="D8">
@@ -3111,7 +3409,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>12</v>
       </c>
       <c r="D9">
@@ -3131,7 +3429,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>23</v>
       </c>
       <c r="D10">
@@ -3151,7 +3449,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>19</v>
       </c>
       <c r="D11">
@@ -3171,7 +3469,7 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>24</v>
       </c>
       <c r="D12">
@@ -3191,7 +3489,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
@@ -3211,7 +3509,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
@@ -3231,7 +3529,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
@@ -3251,7 +3549,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
@@ -3271,7 +3569,7 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>5</v>
       </c>
       <c r="D17">
@@ -3291,7 +3589,7 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>7</v>
       </c>
       <c r="D18">
@@ -3311,7 +3609,7 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
@@ -3331,7 +3629,7 @@
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
@@ -3351,7 +3649,7 @@
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
@@ -3371,7 +3669,7 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>6</v>
       </c>
       <c r="D22">
@@ -3391,7 +3689,7 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
@@ -3411,7 +3709,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>9</v>
       </c>
       <c r="D24">
@@ -3431,7 +3729,7 @@
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>22</v>
       </c>
       <c r="D25">
@@ -3448,7 +3746,7 @@
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
@@ -3465,7 +3763,7 @@
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>18</v>
       </c>
       <c r="D27">
@@ -3482,7 +3780,7 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
@@ -3499,7 +3797,7 @@
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>20</v>
       </c>
       <c r="D29">
@@ -3516,7 +3814,7 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>24</v>
       </c>
       <c r="D30">
@@ -3533,7 +3831,7 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>19</v>
       </c>
       <c r="D31">
@@ -3550,7 +3848,7 @@
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
@@ -3567,7 +3865,7 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
@@ -3584,7 +3882,7 @@
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>22</v>
       </c>
       <c r="D34">
@@ -3601,7 +3899,7 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>13</v>
       </c>
       <c r="D35">
@@ -3618,7 +3916,7 @@
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>14</v>
       </c>
       <c r="D36">
@@ -3635,7 +3933,7 @@
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>12</v>
       </c>
       <c r="D37">
@@ -3652,7 +3950,7 @@
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>20</v>
       </c>
       <c r="D38">
@@ -3677,7 +3975,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBFC071-DADB-473C-B68C-09D2368DF2D7}">
-  <dimension ref="B3:M23"/>
+  <dimension ref="B3:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:I19"/>
@@ -3706,33 +4004,33 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>30</v>
       </c>
       <c r="D8">
@@ -3752,7 +4050,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>65</v>
       </c>
       <c r="D9">
@@ -3772,7 +4070,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>35</v>
       </c>
       <c r="D10">
@@ -3792,7 +4090,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>65</v>
       </c>
       <c r="D11">
@@ -3812,7 +4110,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>31</v>
       </c>
       <c r="D12">
@@ -3832,7 +4130,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>49</v>
       </c>
       <c r="D13">
@@ -3852,7 +4150,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>86</v>
       </c>
       <c r="D14">
@@ -3872,7 +4170,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>54</v>
       </c>
       <c r="D15">
@@ -3892,7 +4190,7 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>30</v>
       </c>
       <c r="D16">
@@ -3912,7 +4210,7 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>107</v>
       </c>
       <c r="D17">
@@ -3932,7 +4230,7 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>28</v>
       </c>
       <c r="D18">
@@ -3952,7 +4250,7 @@
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>59</v>
       </c>
       <c r="D19">
@@ -3972,7 +4270,7 @@
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>103</v>
       </c>
       <c r="D20">
@@ -3989,7 +4287,7 @@
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>35</v>
       </c>
       <c r="D21">
@@ -4006,7 +4304,7 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>34</v>
       </c>
       <c r="D22">
@@ -4018,9 +4316,6 @@
       <c r="F22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4055,7 +4350,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -4063,7 +4358,6 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -4084,7 +4378,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
@@ -4101,7 +4395,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4118,7 +4412,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
@@ -4135,7 +4429,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4152,7 +4446,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4169,7 +4463,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
@@ -4186,7 +4480,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
@@ -4203,7 +4497,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
@@ -4220,7 +4514,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
@@ -4236,14 +4530,8 @@
         <v>1.016E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
@@ -4254,7 +4542,6 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -4275,7 +4562,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
@@ -4292,7 +4579,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
@@ -4309,7 +4596,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -4317,7 +4604,6 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4624,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
@@ -4355,7 +4641,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
@@ -4372,7 +4658,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
@@ -4389,7 +4675,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>7</v>
       </c>
       <c r="B24">
@@ -4406,7 +4692,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>8</v>
       </c>
       <c r="B25">
@@ -4423,7 +4709,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>6</v>
       </c>
       <c r="B26">
@@ -4440,7 +4726,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>3</v>
       </c>
       <c r="B27">
@@ -4457,7 +4743,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
@@ -4474,7 +4760,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
@@ -4490,14 +4776,8 @@
         <v>2.392E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
@@ -4508,7 +4788,6 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -4529,7 +4808,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
@@ -4546,7 +4825,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>0</v>
       </c>
       <c r="B35">
@@ -4563,7 +4842,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>2</v>
       </c>
       <c r="B36">
@@ -4579,20 +4858,8 @@
         <v>0.462038</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-    </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>121</v>
       </c>
       <c r="B41" t="s">
@@ -4600,7 +4867,6 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -4621,10 +4887,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>0.62460380000000004</v>
       </c>
       <c r="C43">
@@ -4635,10 +4901,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>0.62006110000000003</v>
       </c>
       <c r="C44">
@@ -4649,10 +4915,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>0.47335969999999999</v>
       </c>
       <c r="C45">
@@ -4663,10 +4929,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>12</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>2.0655960000000001E-2</v>
       </c>
       <c r="C46">
@@ -4677,10 +4943,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>17</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>1.951576E-2</v>
       </c>
       <c r="C47">
@@ -4691,10 +4957,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>-1.344965E-2</v>
       </c>
       <c r="C48">
@@ -4705,10 +4971,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>10</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>8.3436440000000008E-3</v>
       </c>
       <c r="C49">
@@ -4719,10 +4985,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>19</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>-7.4940290000000001E-3</v>
       </c>
       <c r="C50">
@@ -4733,10 +4999,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>11</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>7.4185700000000002E-3</v>
       </c>
       <c r="C51">
@@ -4747,10 +5013,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>-7.2006309999999999E-3</v>
       </c>
       <c r="C52">
@@ -4761,10 +5027,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>3</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>-5.6014029999999996E-3</v>
       </c>
       <c r="C53">
@@ -4775,10 +5041,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>9</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>-5.2514290000000002E-3</v>
       </c>
       <c r="C54">
@@ -4789,10 +5055,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>16</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>-4.355846E-3</v>
       </c>
       <c r="C55">
@@ -4803,10 +5069,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>18</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>3.808961E-3</v>
       </c>
       <c r="C56">
@@ -4817,10 +5083,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>5</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>-2.4300659999999998E-3</v>
       </c>
       <c r="C57">
@@ -4831,10 +5097,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>15</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>-2.0113029999999999E-3</v>
       </c>
       <c r="C58">
@@ -4845,10 +5111,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>13</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>-8.6452670000000003E-4</v>
       </c>
       <c r="C59">
@@ -4859,10 +5125,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>14</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>7.9683130000000001E-4</v>
       </c>
       <c r="C60">
@@ -4873,10 +5139,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>-6.5403979999999998E-5</v>
       </c>
       <c r="C61">
@@ -4887,10 +5153,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>4</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>-6.9388940000000007E-18</v>
       </c>
       <c r="C62">
@@ -4900,11 +5166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-    </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>26</v>
       </c>
@@ -4913,173 +5175,167 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>2</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>0.62460380000000004</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+      <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>0.62006110000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>0</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>0.47335969999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>12</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>2.0655960000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>17</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>1.951576E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>6</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>1.344965E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>8.3436440000000008E-3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>19</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>7.4940290000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>11</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>7.4185700000000002E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>8</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>7.2006309999999999E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>3</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>5.6014029999999996E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>9</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>5.2514290000000002E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>16</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>4.355846E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>18</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>3.808961E-3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>5</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>2.4300659999999998E-3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>15</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>2.0113029999999999E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>13</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>8.6452670000000003E-4</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>14</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>7.9683130000000001E-4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>7</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>6.5403979999999998E-5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>4</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>6.9388940000000007E-18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
-    </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>27</v>
       </c>
       <c r="B87" t="s">
@@ -5090,7 +5346,6 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5366,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>2</v>
       </c>
       <c r="B89">
@@ -5128,7 +5383,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>1</v>
       </c>
       <c r="B90">
@@ -5145,7 +5400,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>0</v>
       </c>
       <c r="B91">
@@ -5162,7 +5417,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="A92" t="s">
         <v>14</v>
       </c>
       <c r="B92" t="s">
@@ -5170,7 +5425,6 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>21</v>
       </c>
@@ -5191,10 +5445,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>12</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>0.64557560000000003</v>
       </c>
       <c r="C94">
@@ -5205,10 +5459,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>17</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>0.64064920000000003</v>
       </c>
       <c r="C95">
@@ -5219,10 +5473,10 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>18</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>-0.25401420000000002</v>
       </c>
       <c r="C96">
@@ -5233,10 +5487,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>11</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>-0.2214218</v>
       </c>
       <c r="C97">
@@ -5247,10 +5501,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>6</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>-0.17404790000000001</v>
       </c>
       <c r="C98">
@@ -5261,10 +5515,10 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>9</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>-0.12873960000000001</v>
       </c>
       <c r="C99">
@@ -5275,10 +5529,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="3">
+      <c r="A100">
         <v>16</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>-8.4640389999999996E-2</v>
       </c>
       <c r="C100">
@@ -5289,10 +5543,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="3">
+      <c r="A101">
         <v>8</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>-4.8947249999999998E-2</v>
       </c>
       <c r="C101">
@@ -5303,10 +5557,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>3</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>-3.7145259999999999E-2</v>
       </c>
       <c r="C102">
@@ -5317,10 +5571,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>19</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>-2.4075030000000001E-2</v>
       </c>
       <c r="C103">
@@ -5331,10 +5585,10 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>0</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>-1.975526E-2</v>
       </c>
       <c r="C104">
@@ -5345,10 +5599,10 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>1</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>-1.457165E-2</v>
       </c>
       <c r="C105">
@@ -5359,10 +5613,10 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>2</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>-1.442673E-2</v>
       </c>
       <c r="C106">
@@ -5373,10 +5627,10 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>15</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>-4.2219809999999997E-3</v>
       </c>
       <c r="C107">
@@ -5387,10 +5641,10 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>7</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>-4.2204620000000003E-3</v>
       </c>
       <c r="C108">
@@ -5401,10 +5655,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="3">
+      <c r="A109">
         <v>10</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>3.8225849999999999E-3</v>
       </c>
       <c r="C109">
@@ -5415,10 +5669,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="3">
+      <c r="A110">
         <v>13</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>-1.5954980000000001E-3</v>
       </c>
       <c r="C110">
@@ -5429,10 +5683,10 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="3">
+      <c r="A111">
         <v>14</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>6.965141E-4</v>
       </c>
       <c r="C111">
@@ -5443,10 +5697,10 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="3">
+      <c r="A112">
         <v>5</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>-3.7593830000000003E-4</v>
       </c>
       <c r="C112">
@@ -5457,10 +5711,10 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="3">
+      <c r="A113">
         <v>4</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>4.1633359999999997E-17</v>
       </c>
       <c r="C113">
@@ -5470,11 +5724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="3"/>
-    </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>26</v>
       </c>
@@ -5483,173 +5733,167 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="3">
+      <c r="A116">
         <v>12</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>0.64557560000000003</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="3">
+      <c r="A117">
         <v>17</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>0.64064920000000003</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="3">
+      <c r="A118">
         <v>18</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>0.25401420000000002</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="3">
+      <c r="A119">
         <v>11</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>0.2214218</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="3">
+      <c r="A120">
         <v>6</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>0.17404790000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="3">
+      <c r="A121">
         <v>9</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>0.12873960000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="3">
+      <c r="A122">
         <v>16</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>8.4640389999999996E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="3">
+      <c r="A123">
         <v>8</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>4.8947249999999998E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="3">
+      <c r="A124">
         <v>3</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>3.7145259999999999E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="3">
+      <c r="A125">
         <v>19</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>2.4075030000000001E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="3">
+      <c r="A126">
         <v>0</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>1.975526E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="3">
+      <c r="A127">
         <v>1</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>1.457165E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="3">
+      <c r="A128">
         <v>2</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>1.442673E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="3">
+      <c r="A129">
         <v>15</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <v>4.2219809999999997E-3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="3">
+      <c r="A130">
         <v>7</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <v>4.2204620000000003E-3</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="3">
+      <c r="A131">
         <v>10</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>3.8225849999999999E-3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="3">
+      <c r="A132">
         <v>13</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <v>1.5954980000000001E-3</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="3">
+      <c r="A133">
         <v>14</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>6.965141E-4</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="3">
+      <c r="A134">
         <v>5</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <v>3.7593830000000003E-4</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>4</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <v>4.1633359999999997E-17</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="3"/>
-    </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+      <c r="A138" t="s">
         <v>27</v>
       </c>
       <c r="B138" t="s">
@@ -5660,7 +5904,6 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="3"/>
       <c r="B139" t="s">
         <v>21</v>
       </c>
@@ -5681,7 +5924,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="3">
+      <c r="A140">
         <v>12</v>
       </c>
       <c r="B140">
@@ -5695,7 +5938,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="3">
+      <c r="A141">
         <v>17</v>
       </c>
       <c r="B141">
@@ -5709,7 +5952,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="3">
+      <c r="A142">
         <v>18</v>
       </c>
       <c r="B142">
@@ -5723,7 +5966,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="3">
+      <c r="A143">
         <v>11</v>
       </c>
       <c r="B143">
@@ -5736,11 +5979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="3"/>
-    </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="3"/>
       <c r="B145" t="s">
         <v>26</v>
       </c>
@@ -5749,7 +5988,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="3">
+      <c r="A146">
         <v>12</v>
       </c>
       <c r="B146">
@@ -5757,7 +5996,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="3">
+      <c r="A147">
         <v>17</v>
       </c>
       <c r="B147">
@@ -5765,7 +6004,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="3">
+      <c r="A148">
         <v>18</v>
       </c>
       <c r="B148">
@@ -5773,7 +6012,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="3">
+      <c r="A149">
         <v>11</v>
       </c>
       <c r="B149">
@@ -5781,7 +6020,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
+      <c r="A150" t="s">
         <v>14</v>
       </c>
       <c r="B150" t="s">
@@ -5789,7 +6028,6 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="3"/>
       <c r="B151" t="s">
         <v>21</v>
       </c>
@@ -5810,10 +6048,10 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="3">
+      <c r="A152">
         <v>18</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <v>0.58613870000000001</v>
       </c>
       <c r="C152">
@@ -5824,10 +6062,10 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="3">
+      <c r="A153">
         <v>11</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <v>0.53050200000000003</v>
       </c>
       <c r="C153">
@@ -5838,10 +6076,10 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="3">
+      <c r="A154">
         <v>6</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <v>-0.47591169999999999</v>
       </c>
       <c r="C154">
@@ -5852,10 +6090,10 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="3">
+      <c r="A155">
         <v>9</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <v>0.25056820000000002</v>
       </c>
       <c r="C155">
@@ -5866,10 +6104,10 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="3">
+      <c r="A156">
         <v>12</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <v>0.167881</v>
       </c>
       <c r="C156">
@@ -5880,10 +6118,10 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="3">
+      <c r="A157">
         <v>17</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>0.1600027</v>
       </c>
       <c r="C157">
@@ -5894,10 +6132,10 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="3">
+      <c r="A158">
         <v>8</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>-0.1018095</v>
       </c>
       <c r="C158">
@@ -5908,10 +6146,10 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="3">
+      <c r="A159">
         <v>3</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <v>-9.358197E-2</v>
       </c>
       <c r="C159">
@@ -5922,10 +6160,10 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="3">
+      <c r="A160">
         <v>10</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <v>-8.9229039999999996E-2</v>
       </c>
       <c r="C160">
@@ -5936,10 +6174,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="3">
+      <c r="A161">
         <v>19</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <v>4.8422630000000001E-2</v>
       </c>
       <c r="C161">
@@ -5950,10 +6188,10 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="3">
+      <c r="A162">
         <v>16</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <v>3.0962679999999999E-2</v>
       </c>
       <c r="C162">
@@ -5964,10 +6202,10 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="3">
+      <c r="A163">
         <v>14</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <v>-2.9476559999999999E-2</v>
       </c>
       <c r="C163">
@@ -5978,10 +6216,10 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="3">
+      <c r="A164">
         <v>15</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <v>-1.6416190000000001E-2</v>
       </c>
       <c r="C164">
@@ -5992,10 +6230,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="3">
+      <c r="A165">
         <v>1</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <v>-1.2096600000000001E-2</v>
       </c>
       <c r="C165">
@@ -6006,10 +6244,10 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="3">
+      <c r="A166">
         <v>2</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <v>-1.195454E-2</v>
       </c>
       <c r="C166">
@@ -6020,10 +6258,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="3">
+      <c r="A167">
         <v>7</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="3">
         <v>-7.9198859999999992E-3</v>
       </c>
       <c r="C167">
@@ -6034,10 +6272,10 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="3">
+      <c r="A168">
         <v>0</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="3">
         <v>-6.1461859999999997E-3</v>
       </c>
       <c r="C168">
@@ -6048,10 +6286,10 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="3">
+      <c r="A169">
         <v>13</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <v>-5.4268220000000004E-3</v>
       </c>
       <c r="C169">
@@ -6062,10 +6300,10 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="3">
+      <c r="A170">
         <v>5</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <v>-1.478119E-3</v>
       </c>
       <c r="C170">
@@ -6076,10 +6314,10 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="3">
+      <c r="A171">
         <v>4</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <v>1.110223E-16</v>
       </c>
       <c r="C171">
@@ -6089,11 +6327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="3"/>
-    </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>26</v>
       </c>
@@ -6102,173 +6336,167 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="3">
+      <c r="A174">
         <v>18</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="3">
         <v>0.58613870000000001</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="3">
+      <c r="A175">
         <v>11</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="3">
         <v>0.53050200000000003</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="3">
+      <c r="A176">
         <v>6</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <v>0.47591169999999999</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="3">
+      <c r="A177">
         <v>9</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <v>0.25056820000000002</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="3">
+      <c r="A178">
         <v>12</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>0.167881</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="3">
+      <c r="A179">
         <v>17</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <v>0.1600027</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="3">
+      <c r="A180">
         <v>8</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>0.1018095</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="3">
+      <c r="A181">
         <v>3</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>9.358197E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="3">
+      <c r="A182">
         <v>10</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <v>8.9229039999999996E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="3">
+      <c r="A183">
         <v>19</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>4.8422630000000001E-2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="3">
+      <c r="A184">
         <v>16</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <v>3.0962679999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="3">
+      <c r="A185">
         <v>14</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <v>2.9476559999999999E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="3">
+      <c r="A186">
         <v>15</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <v>1.6416190000000001E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="3">
+      <c r="A187">
         <v>1</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <v>1.2096600000000001E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="3">
+      <c r="A188">
         <v>2</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <v>1.195454E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="3">
+      <c r="A189">
         <v>7</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <v>7.9198859999999992E-3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="3">
+      <c r="A190">
         <v>0</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="3">
         <v>6.1461859999999997E-3</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="3">
+      <c r="A191">
         <v>13</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <v>5.4268220000000004E-3</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="3">
+      <c r="A192">
         <v>5</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="3">
         <v>1.478119E-3</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="3">
+      <c r="A193">
         <v>4</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <v>1.110223E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="3"/>
-    </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
+      <c r="A196" t="s">
         <v>27</v>
       </c>
       <c r="B196" t="s">
@@ -6279,7 +6507,6 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="3"/>
       <c r="B197" t="s">
         <v>21</v>
       </c>
@@ -6300,7 +6527,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="3">
+      <c r="A198">
         <v>18</v>
       </c>
       <c r="B198">
@@ -6314,7 +6541,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="3">
+      <c r="A199">
         <v>11</v>
       </c>
       <c r="B199">
@@ -6328,7 +6555,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="3">
+      <c r="A200">
         <v>6</v>
       </c>
       <c r="B200">
@@ -6342,7 +6569,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="3">
+      <c r="A201">
         <v>9</v>
       </c>
       <c r="B201">
@@ -6355,11 +6582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="3"/>
-    </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="3"/>
       <c r="B203" t="s">
         <v>26</v>
       </c>
@@ -6368,7 +6591,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="3">
+      <c r="A204">
         <v>18</v>
       </c>
       <c r="B204">
@@ -6376,7 +6599,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="3">
+      <c r="A205">
         <v>11</v>
       </c>
       <c r="B205">
@@ -6384,7 +6607,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="3">
+      <c r="A206">
         <v>6</v>
       </c>
       <c r="B206">
@@ -6392,7 +6615,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="3">
+      <c r="A207">
         <v>9</v>
       </c>
       <c r="B207">
@@ -6400,7 +6623,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
+      <c r="A208" t="s">
         <v>14</v>
       </c>
       <c r="B208" t="s">
@@ -6408,7 +6631,6 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="3"/>
       <c r="B209" t="s">
         <v>21</v>
       </c>
@@ -6429,7 +6651,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="3">
+      <c r="A210">
         <v>6</v>
       </c>
       <c r="B210">
@@ -6443,7 +6665,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="3">
+      <c r="A211">
         <v>10</v>
       </c>
       <c r="B211">
@@ -6457,7 +6679,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="3">
+      <c r="A212">
         <v>8</v>
       </c>
       <c r="B212">
@@ -6471,7 +6693,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="3">
+      <c r="A213">
         <v>3</v>
       </c>
       <c r="B213">
@@ -6485,7 +6707,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="3">
+      <c r="A214">
         <v>16</v>
       </c>
       <c r="B214">
@@ -6499,7 +6721,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="3">
+      <c r="A215">
         <v>11</v>
       </c>
       <c r="B215">
@@ -6513,7 +6735,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="3">
+      <c r="A216">
         <v>18</v>
       </c>
       <c r="B216">
@@ -6527,7 +6749,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="3">
+      <c r="A217">
         <v>12</v>
       </c>
       <c r="B217">
@@ -6541,7 +6763,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="3">
+      <c r="A218">
         <v>14</v>
       </c>
       <c r="B218">
@@ -6555,7 +6777,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="3">
+      <c r="A219">
         <v>17</v>
       </c>
       <c r="B219">
@@ -6569,7 +6791,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" s="3">
+      <c r="A220">
         <v>15</v>
       </c>
       <c r="B220">
@@ -6583,7 +6805,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="3">
+      <c r="A221">
         <v>0</v>
       </c>
       <c r="B221">
@@ -6597,7 +6819,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" s="3">
+      <c r="A222">
         <v>7</v>
       </c>
       <c r="B222">
@@ -6611,7 +6833,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" s="3">
+      <c r="A223">
         <v>19</v>
       </c>
       <c r="B223">
@@ -6625,7 +6847,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" s="3">
+      <c r="A224">
         <v>13</v>
       </c>
       <c r="B224">
@@ -6639,7 +6861,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="3">
+      <c r="A225">
         <v>9</v>
       </c>
       <c r="B225">
@@ -6653,7 +6875,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="3">
+      <c r="A226">
         <v>1</v>
       </c>
       <c r="B226">
@@ -6667,7 +6889,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="3">
+      <c r="A227">
         <v>2</v>
       </c>
       <c r="B227">
@@ -6681,7 +6903,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="3">
+      <c r="A228">
         <v>5</v>
       </c>
       <c r="B228">
@@ -6695,7 +6917,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="3">
+      <c r="A229">
         <v>4</v>
       </c>
       <c r="B229">
@@ -6708,11 +6930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="3"/>
-    </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="3"/>
       <c r="B231" t="s">
         <v>26</v>
       </c>
@@ -6721,7 +6939,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="3">
+      <c r="A232">
         <v>6</v>
       </c>
       <c r="B232">
@@ -6729,7 +6947,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="3">
+      <c r="A233">
         <v>10</v>
       </c>
       <c r="B233">
@@ -6737,7 +6955,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="3">
+      <c r="A234">
         <v>8</v>
       </c>
       <c r="B234">
@@ -6745,7 +6963,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="3">
+      <c r="A235">
         <v>3</v>
       </c>
       <c r="B235">
@@ -6753,7 +6971,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="3">
+      <c r="A236">
         <v>16</v>
       </c>
       <c r="B236">
@@ -6761,7 +6979,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="3">
+      <c r="A237">
         <v>11</v>
       </c>
       <c r="B237">
@@ -6769,7 +6987,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="3">
+      <c r="A238">
         <v>18</v>
       </c>
       <c r="B238">
@@ -6777,7 +6995,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="3">
+      <c r="A239">
         <v>12</v>
       </c>
       <c r="B239">
@@ -6785,7 +7003,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="3">
+      <c r="A240">
         <v>14</v>
       </c>
       <c r="B240">
@@ -6793,7 +7011,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="3">
+      <c r="A241">
         <v>17</v>
       </c>
       <c r="B241">
@@ -6801,7 +7019,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="3">
+      <c r="A242">
         <v>15</v>
       </c>
       <c r="B242">
@@ -6809,7 +7027,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" s="3">
+      <c r="A243">
         <v>0</v>
       </c>
       <c r="B243">
@@ -6817,7 +7035,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="3">
+      <c r="A244">
         <v>7</v>
       </c>
       <c r="B244">
@@ -6825,7 +7043,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" s="3">
+      <c r="A245">
         <v>19</v>
       </c>
       <c r="B245">
@@ -6833,7 +7051,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="3">
+      <c r="A246">
         <v>13</v>
       </c>
       <c r="B246">
@@ -6841,7 +7059,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" s="3">
+      <c r="A247">
         <v>9</v>
       </c>
       <c r="B247">
@@ -6849,7 +7067,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" s="3">
+      <c r="A248">
         <v>1</v>
       </c>
       <c r="B248">
@@ -6857,7 +7075,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" s="3">
+      <c r="A249">
         <v>2</v>
       </c>
       <c r="B249">
@@ -6865,7 +7083,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" s="3">
+      <c r="A250">
         <v>5</v>
       </c>
       <c r="B250">
@@ -6873,21 +7091,15 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="3">
+      <c r="A251">
         <v>4</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" s="3"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" s="3"/>
-    </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" s="3" t="s">
+      <c r="A254" t="s">
         <v>27</v>
       </c>
       <c r="B254" t="s">
@@ -6898,7 +7110,6 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" s="3"/>
       <c r="B255" t="s">
         <v>21</v>
       </c>
@@ -6919,7 +7130,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" s="3">
+      <c r="A256">
         <v>6</v>
       </c>
       <c r="B256">
@@ -6936,7 +7147,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" s="3">
+      <c r="A257">
         <v>10</v>
       </c>
       <c r="B257">
@@ -6953,7 +7164,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" s="3">
+      <c r="A258">
         <v>8</v>
       </c>
       <c r="B258">
@@ -6970,7 +7181,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" s="3">
+      <c r="A259">
         <v>3</v>
       </c>
       <c r="B259">
@@ -6987,7 +7198,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" s="3">
+      <c r="A260">
         <v>16</v>
       </c>
       <c r="B260">
@@ -7003,11 +7214,8 @@
         <v>0.26122099999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" s="3"/>
-    </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" s="3" t="s">
+      <c r="A262" t="s">
         <v>122</v>
       </c>
       <c r="B262" t="s">
@@ -7015,7 +7223,6 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>21</v>
       </c>
@@ -7036,7 +7243,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" s="3">
+      <c r="A264">
         <v>13</v>
       </c>
       <c r="B264">
@@ -7050,7 +7257,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" s="3">
+      <c r="A265">
         <v>12</v>
       </c>
       <c r="B265">
@@ -7064,7 +7271,7 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" s="3">
+      <c r="A266">
         <v>23</v>
       </c>
       <c r="B266">
@@ -7078,7 +7285,7 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="3">
+      <c r="A267">
         <v>19</v>
       </c>
       <c r="B267">
@@ -7092,7 +7299,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="3">
+      <c r="A268">
         <v>24</v>
       </c>
       <c r="B268">
@@ -7106,7 +7313,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" s="3">
+      <c r="A269">
         <v>15</v>
       </c>
       <c r="B269">
@@ -7120,7 +7327,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" s="3">
+      <c r="A270">
         <v>11</v>
       </c>
       <c r="B270">
@@ -7134,7 +7341,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" s="3">
+      <c r="A271">
         <v>16</v>
       </c>
       <c r="B271">
@@ -7148,7 +7355,7 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" s="3">
+      <c r="A272">
         <v>9</v>
       </c>
       <c r="B272">
@@ -7162,7 +7369,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="3">
+      <c r="A273">
         <v>20</v>
       </c>
       <c r="B273">
@@ -7176,7 +7383,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="3">
+      <c r="A274">
         <v>21</v>
       </c>
       <c r="B274">
@@ -7190,7 +7397,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="3">
+      <c r="A275">
         <v>22</v>
       </c>
       <c r="B275">
@@ -7204,7 +7411,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="3">
+      <c r="A276">
         <v>18</v>
       </c>
       <c r="B276">
@@ -7218,7 +7425,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="3">
+      <c r="A277">
         <v>0</v>
       </c>
       <c r="B277">
@@ -7232,7 +7439,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="3">
+      <c r="A278">
         <v>5</v>
       </c>
       <c r="B278">
@@ -7246,7 +7453,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="3">
+      <c r="A279">
         <v>3</v>
       </c>
       <c r="B279">
@@ -7260,7 +7467,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="3">
+      <c r="A280">
         <v>6</v>
       </c>
       <c r="B280">
@@ -7274,7 +7481,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="3">
+      <c r="A281">
         <v>14</v>
       </c>
       <c r="B281">
@@ -7288,7 +7495,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="3">
+      <c r="A282">
         <v>1</v>
       </c>
       <c r="B282">
@@ -7302,7 +7509,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="3">
+      <c r="A283">
         <v>4</v>
       </c>
       <c r="B283">
@@ -7316,7 +7523,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="3">
+      <c r="A284">
         <v>2</v>
       </c>
       <c r="B284">
@@ -7330,7 +7537,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="3">
+      <c r="A285">
         <v>10</v>
       </c>
       <c r="B285">
@@ -7344,7 +7551,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="3">
+      <c r="A286">
         <v>17</v>
       </c>
       <c r="B286">
@@ -7358,7 +7565,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="3">
+      <c r="A287">
         <v>7</v>
       </c>
       <c r="B287">
@@ -7372,7 +7579,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="3">
+      <c r="A288">
         <v>8</v>
       </c>
       <c r="B288">
@@ -7385,11 +7592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" s="3"/>
-    </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>26</v>
       </c>
@@ -7398,7 +7601,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" s="3">
+      <c r="A291">
         <v>13</v>
       </c>
       <c r="B291">
@@ -7406,7 +7609,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" s="3">
+      <c r="A292">
         <v>12</v>
       </c>
       <c r="B292">
@@ -7414,7 +7617,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" s="3">
+      <c r="A293">
         <v>23</v>
       </c>
       <c r="B293">
@@ -7422,7 +7625,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" s="3">
+      <c r="A294">
         <v>19</v>
       </c>
       <c r="B294">
@@ -7430,7 +7633,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" s="3">
+      <c r="A295">
         <v>24</v>
       </c>
       <c r="B295">
@@ -7438,7 +7641,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296" s="3">
+      <c r="A296">
         <v>15</v>
       </c>
       <c r="B296">
@@ -7446,7 +7649,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" s="3">
+      <c r="A297">
         <v>11</v>
       </c>
       <c r="B297">
@@ -7454,7 +7657,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" s="3">
+      <c r="A298">
         <v>16</v>
       </c>
       <c r="B298">
@@ -7462,7 +7665,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" s="3">
+      <c r="A299">
         <v>9</v>
       </c>
       <c r="B299">
@@ -7470,7 +7673,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" s="3">
+      <c r="A300">
         <v>20</v>
       </c>
       <c r="B300">
@@ -7478,7 +7681,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" s="3">
+      <c r="A301">
         <v>21</v>
       </c>
       <c r="B301">
@@ -7486,7 +7689,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" s="3">
+      <c r="A302">
         <v>22</v>
       </c>
       <c r="B302">
@@ -7494,7 +7697,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" s="3">
+      <c r="A303">
         <v>18</v>
       </c>
       <c r="B303">
@@ -7502,7 +7705,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" s="3">
+      <c r="A304">
         <v>0</v>
       </c>
       <c r="B304">
@@ -7510,7 +7713,7 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A305" s="3">
+      <c r="A305">
         <v>5</v>
       </c>
       <c r="B305">
@@ -7518,7 +7721,7 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A306" s="3">
+      <c r="A306">
         <v>3</v>
       </c>
       <c r="B306">
@@ -7526,7 +7729,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A307" s="3">
+      <c r="A307">
         <v>6</v>
       </c>
       <c r="B307">
@@ -7534,7 +7737,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A308" s="3">
+      <c r="A308">
         <v>14</v>
       </c>
       <c r="B308">
@@ -7542,7 +7745,7 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A309" s="3">
+      <c r="A309">
         <v>1</v>
       </c>
       <c r="B309">
@@ -7550,7 +7753,7 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A310" s="3">
+      <c r="A310">
         <v>4</v>
       </c>
       <c r="B310">
@@ -7558,7 +7761,7 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A311" s="3">
+      <c r="A311">
         <v>2</v>
       </c>
       <c r="B311">
@@ -7566,7 +7769,7 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A312" s="3">
+      <c r="A312">
         <v>10</v>
       </c>
       <c r="B312">
@@ -7574,7 +7777,7 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A313" s="3">
+      <c r="A313">
         <v>17</v>
       </c>
       <c r="B313">
@@ -7582,7 +7785,7 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A314" s="3">
+      <c r="A314">
         <v>7</v>
       </c>
       <c r="B314">
@@ -7590,21 +7793,15 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A315" s="3">
+      <c r="A315">
         <v>8</v>
       </c>
       <c r="B315">
         <v>7.4299999999999995E-4</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A316" s="3"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A317" s="3"/>
-    </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A318" s="3" t="s">
+      <c r="A318" t="s">
         <v>27</v>
       </c>
       <c r="B318" t="s">
@@ -7615,7 +7812,6 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A319" s="3"/>
       <c r="B319" t="s">
         <v>21</v>
       </c>
@@ -7636,7 +7832,7 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A320" s="3">
+      <c r="A320">
         <v>13</v>
       </c>
       <c r="B320">
@@ -7650,7 +7846,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A321" s="3">
+      <c r="A321">
         <v>12</v>
       </c>
       <c r="B321">
@@ -7664,7 +7860,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A322" s="3">
+      <c r="A322">
         <v>23</v>
       </c>
       <c r="B322">
@@ -7678,7 +7874,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A323" s="3">
+      <c r="A323">
         <v>19</v>
       </c>
       <c r="B323">
@@ -7692,7 +7888,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A324" s="3">
+      <c r="A324">
         <v>24</v>
       </c>
       <c r="B324">
@@ -7705,11 +7901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A325" s="3"/>
-    </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A326" s="3"/>
       <c r="B326" t="s">
         <v>26</v>
       </c>
@@ -7718,7 +7910,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A327" s="3">
+      <c r="A327">
         <v>13</v>
       </c>
       <c r="B327">
@@ -7726,7 +7918,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A328" s="3">
+      <c r="A328">
         <v>12</v>
       </c>
       <c r="B328">
@@ -7734,7 +7926,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A329" s="3">
+      <c r="A329">
         <v>23</v>
       </c>
       <c r="B329">
@@ -7742,7 +7934,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A330" s="3">
+      <c r="A330">
         <v>19</v>
       </c>
       <c r="B330">
@@ -7750,7 +7942,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A331" s="3">
+      <c r="A331">
         <v>24</v>
       </c>
       <c r="B331">
@@ -7758,7 +7950,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A332" s="3" t="s">
+      <c r="A332" t="s">
         <v>14</v>
       </c>
       <c r="B332" t="s">
@@ -7766,7 +7958,6 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A333" s="3"/>
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -7787,7 +7978,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A334" s="3">
+      <c r="A334">
         <v>1</v>
       </c>
       <c r="B334">
@@ -7801,7 +7992,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A335" s="3">
+      <c r="A335">
         <v>6</v>
       </c>
       <c r="B335">
@@ -7815,7 +8006,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A336" s="3">
+      <c r="A336">
         <v>0</v>
       </c>
       <c r="B336">
@@ -7829,7 +8020,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="3">
+      <c r="A337">
         <v>9</v>
       </c>
       <c r="B337">
@@ -7843,7 +8034,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="3">
+      <c r="A338">
         <v>5</v>
       </c>
       <c r="B338">
@@ -7857,7 +8048,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" s="3">
+      <c r="A339">
         <v>7</v>
       </c>
       <c r="B339">
@@ -7871,7 +8062,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340" s="3">
+      <c r="A340">
         <v>4</v>
       </c>
       <c r="B340">
@@ -7885,7 +8076,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="3">
+      <c r="A341">
         <v>2</v>
       </c>
       <c r="B341">
@@ -7899,7 +8090,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" s="3">
+      <c r="A342">
         <v>14</v>
       </c>
       <c r="B342">
@@ -7913,7 +8104,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="3">
+      <c r="A343">
         <v>11</v>
       </c>
       <c r="B343">
@@ -7927,7 +8118,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="3">
+      <c r="A344">
         <v>22</v>
       </c>
       <c r="B344">
@@ -7941,7 +8132,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" s="3">
+      <c r="A345">
         <v>16</v>
       </c>
       <c r="B345">
@@ -7955,7 +8146,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="3">
+      <c r="A346">
         <v>18</v>
       </c>
       <c r="B346">
@@ -7969,7 +8160,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="3">
+      <c r="A347">
         <v>24</v>
       </c>
       <c r="B347">
@@ -7983,7 +8174,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" s="3">
+      <c r="A348">
         <v>12</v>
       </c>
       <c r="B348">
@@ -7997,7 +8188,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" s="3">
+      <c r="A349">
         <v>17</v>
       </c>
       <c r="B349">
@@ -8011,7 +8202,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="3">
+      <c r="A350">
         <v>13</v>
       </c>
       <c r="B350">
@@ -8025,7 +8216,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" s="3">
+      <c r="A351">
         <v>3</v>
       </c>
       <c r="B351">
@@ -8039,7 +8230,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="3">
+      <c r="A352">
         <v>15</v>
       </c>
       <c r="B352">
@@ -8053,7 +8244,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="3">
+      <c r="A353">
         <v>21</v>
       </c>
       <c r="B353">
@@ -8067,7 +8258,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" s="3">
+      <c r="A354">
         <v>20</v>
       </c>
       <c r="B354">
@@ -8081,7 +8272,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="3">
+      <c r="A355">
         <v>19</v>
       </c>
       <c r="B355">
@@ -8095,7 +8286,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="3">
+      <c r="A356">
         <v>23</v>
       </c>
       <c r="B356">
@@ -8109,7 +8300,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" s="3">
+      <c r="A357">
         <v>8</v>
       </c>
       <c r="B357">
@@ -8123,7 +8314,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="3">
+      <c r="A358">
         <v>10</v>
       </c>
       <c r="B358">
@@ -8136,11 +8327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="3"/>
-    </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" s="3"/>
       <c r="B360" t="s">
         <v>26</v>
       </c>
@@ -8149,7 +8336,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="3">
+      <c r="A361">
         <v>1</v>
       </c>
       <c r="B361">
@@ -8157,7 +8344,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="3">
+      <c r="A362">
         <v>6</v>
       </c>
       <c r="B362">
@@ -8165,7 +8352,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363" s="3">
+      <c r="A363">
         <v>0</v>
       </c>
       <c r="B363">
@@ -8173,7 +8360,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="3">
+      <c r="A364">
         <v>9</v>
       </c>
       <c r="B364">
@@ -8181,7 +8368,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="3">
+      <c r="A365">
         <v>5</v>
       </c>
       <c r="B365">
@@ -8189,7 +8376,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A366" s="3">
+      <c r="A366">
         <v>7</v>
       </c>
       <c r="B366">
@@ -8197,7 +8384,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="3">
+      <c r="A367">
         <v>4</v>
       </c>
       <c r="B367">
@@ -8205,7 +8392,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="3">
+      <c r="A368">
         <v>2</v>
       </c>
       <c r="B368">
@@ -8213,7 +8400,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" s="3">
+      <c r="A369">
         <v>14</v>
       </c>
       <c r="B369">
@@ -8221,7 +8408,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" s="3">
+      <c r="A370">
         <v>11</v>
       </c>
       <c r="B370">
@@ -8229,7 +8416,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" s="3">
+      <c r="A371">
         <v>22</v>
       </c>
       <c r="B371">
@@ -8237,7 +8424,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" s="3">
+      <c r="A372">
         <v>16</v>
       </c>
       <c r="B372">
@@ -8245,7 +8432,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="3">
+      <c r="A373">
         <v>18</v>
       </c>
       <c r="B373">
@@ -8253,7 +8440,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A374" s="3">
+      <c r="A374">
         <v>24</v>
       </c>
       <c r="B374">
@@ -8261,7 +8448,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A375" s="3">
+      <c r="A375">
         <v>12</v>
       </c>
       <c r="B375">
@@ -8269,7 +8456,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A376" s="3">
+      <c r="A376">
         <v>17</v>
       </c>
       <c r="B376">
@@ -8277,7 +8464,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A377" s="3">
+      <c r="A377">
         <v>13</v>
       </c>
       <c r="B377">
@@ -8285,7 +8472,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A378" s="3">
+      <c r="A378">
         <v>3</v>
       </c>
       <c r="B378">
@@ -8293,7 +8480,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" s="3">
+      <c r="A379">
         <v>15</v>
       </c>
       <c r="B379">
@@ -8301,7 +8488,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A380" s="3">
+      <c r="A380">
         <v>21</v>
       </c>
       <c r="B380">
@@ -8309,7 +8496,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A381" s="3">
+      <c r="A381">
         <v>20</v>
       </c>
       <c r="B381">
@@ -8317,7 +8504,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" s="3">
+      <c r="A382">
         <v>19</v>
       </c>
       <c r="B382">
@@ -8325,7 +8512,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A383" s="3">
+      <c r="A383">
         <v>23</v>
       </c>
       <c r="B383">
@@ -8333,7 +8520,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A384" s="3">
+      <c r="A384">
         <v>8</v>
       </c>
       <c r="B384">
@@ -8341,21 +8528,15 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A385" s="3">
+      <c r="A385">
         <v>10</v>
       </c>
       <c r="B385">
         <v>1.4789999999999999E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A386" s="3"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A387" s="3"/>
-    </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A388" s="3" t="s">
+      <c r="A388" t="s">
         <v>27</v>
       </c>
       <c r="B388" t="s">
@@ -8366,7 +8547,6 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A389" s="3"/>
       <c r="B389" t="s">
         <v>21</v>
       </c>
@@ -8387,7 +8567,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A390" s="3">
+      <c r="A390">
         <v>1</v>
       </c>
       <c r="B390">
@@ -8404,7 +8584,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A391" s="3">
+      <c r="A391">
         <v>6</v>
       </c>
       <c r="B391">
@@ -8421,7 +8601,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A392" s="3">
+      <c r="A392">
         <v>0</v>
       </c>
       <c r="B392">
@@ -8438,7 +8618,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A393" s="3">
+      <c r="A393">
         <v>9</v>
       </c>
       <c r="B393">
@@ -8455,7 +8635,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A394" s="3">
+      <c r="A394">
         <v>5</v>
       </c>
       <c r="B394">
@@ -8472,7 +8652,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A395" s="3">
+      <c r="A395">
         <v>7</v>
       </c>
       <c r="B395">
@@ -8489,7 +8669,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A396" s="3">
+      <c r="A396">
         <v>4</v>
       </c>
       <c r="B396">
@@ -8506,7 +8686,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A397" s="3" t="s">
+      <c r="A397" t="s">
         <v>14</v>
       </c>
       <c r="B397" t="s">
@@ -8514,7 +8694,6 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A398" s="3"/>
       <c r="B398" t="s">
         <v>21</v>
       </c>
@@ -8535,7 +8714,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A399" s="3">
+      <c r="A399">
         <v>14</v>
       </c>
       <c r="B399">
@@ -8549,7 +8728,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A400" s="3">
+      <c r="A400">
         <v>17</v>
       </c>
       <c r="B400">
@@ -8563,7 +8742,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="3">
+      <c r="A401">
         <v>6</v>
       </c>
       <c r="B401">
@@ -8577,7 +8756,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A402" s="3">
+      <c r="A402">
         <v>5</v>
       </c>
       <c r="B402">
@@ -8591,7 +8770,7 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A403" s="3">
+      <c r="A403">
         <v>9</v>
       </c>
       <c r="B403">
@@ -8605,7 +8784,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" s="3">
+      <c r="A404">
         <v>22</v>
       </c>
       <c r="B404">
@@ -8619,7 +8798,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A405" s="3">
+      <c r="A405">
         <v>1</v>
       </c>
       <c r="B405">
@@ -8633,7 +8812,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="3">
+      <c r="A406">
         <v>18</v>
       </c>
       <c r="B406">
@@ -8647,7 +8826,7 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="3">
+      <c r="A407">
         <v>0</v>
       </c>
       <c r="B407">
@@ -8661,7 +8840,7 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A408" s="3">
+      <c r="A408">
         <v>20</v>
       </c>
       <c r="B408">
@@ -8675,7 +8854,7 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="3">
+      <c r="A409">
         <v>21</v>
       </c>
       <c r="B409">
@@ -8689,7 +8868,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="3">
+      <c r="A410">
         <v>15</v>
       </c>
       <c r="B410">
@@ -8703,7 +8882,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A411" s="3">
+      <c r="A411">
         <v>3</v>
       </c>
       <c r="B411">
@@ -8717,7 +8896,7 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" s="3">
+      <c r="A412">
         <v>13</v>
       </c>
       <c r="B412">
@@ -8731,7 +8910,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" s="3">
+      <c r="A413">
         <v>11</v>
       </c>
       <c r="B413">
@@ -8745,7 +8924,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A414" s="3">
+      <c r="A414">
         <v>19</v>
       </c>
       <c r="B414">
@@ -8759,7 +8938,7 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="3">
+      <c r="A415">
         <v>12</v>
       </c>
       <c r="B415">
@@ -8773,7 +8952,7 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="3">
+      <c r="A416">
         <v>24</v>
       </c>
       <c r="B416">
@@ -8787,7 +8966,7 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A417" s="3">
+      <c r="A417">
         <v>10</v>
       </c>
       <c r="B417">
@@ -8801,7 +8980,7 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418" s="3">
+      <c r="A418">
         <v>2</v>
       </c>
       <c r="B418">
@@ -8815,7 +8994,7 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="3">
+      <c r="A419">
         <v>16</v>
       </c>
       <c r="B419">
@@ -8829,7 +9008,7 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A420" s="3">
+      <c r="A420">
         <v>4</v>
       </c>
       <c r="B420">
@@ -8843,7 +9022,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="3">
+      <c r="A421">
         <v>8</v>
       </c>
       <c r="B421">
@@ -8857,7 +9036,7 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="3">
+      <c r="A422">
         <v>23</v>
       </c>
       <c r="B422">
@@ -8871,7 +9050,7 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423" s="3">
+      <c r="A423">
         <v>7</v>
       </c>
       <c r="B423">
@@ -8884,11 +9063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="3"/>
-    </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" s="3"/>
       <c r="B425" t="s">
         <v>26</v>
       </c>
@@ -8897,7 +9072,7 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426" s="3">
+      <c r="A426">
         <v>14</v>
       </c>
       <c r="B426">
@@ -8905,7 +9080,7 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427" s="3">
+      <c r="A427">
         <v>17</v>
       </c>
       <c r="B427">
@@ -8913,7 +9088,7 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="3">
+      <c r="A428">
         <v>6</v>
       </c>
       <c r="B428">
@@ -8921,7 +9096,7 @@
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429" s="3">
+      <c r="A429">
         <v>5</v>
       </c>
       <c r="B429">
@@ -8929,7 +9104,7 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430" s="3">
+      <c r="A430">
         <v>9</v>
       </c>
       <c r="B430">
@@ -8937,7 +9112,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="3">
+      <c r="A431">
         <v>22</v>
       </c>
       <c r="B431">
@@ -8945,7 +9120,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432" s="3">
+      <c r="A432">
         <v>1</v>
       </c>
       <c r="B432">
@@ -8953,7 +9128,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A433" s="3">
+      <c r="A433">
         <v>18</v>
       </c>
       <c r="B433">
@@ -8961,7 +9136,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A434" s="3">
+      <c r="A434">
         <v>0</v>
       </c>
       <c r="B434">
@@ -8969,7 +9144,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A435" s="3">
+      <c r="A435">
         <v>20</v>
       </c>
       <c r="B435">
@@ -8977,7 +9152,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A436" s="3">
+      <c r="A436">
         <v>21</v>
       </c>
       <c r="B436">
@@ -8985,7 +9160,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A437" s="3">
+      <c r="A437">
         <v>15</v>
       </c>
       <c r="B437">
@@ -8993,7 +9168,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A438" s="3">
+      <c r="A438">
         <v>3</v>
       </c>
       <c r="B438">
@@ -9001,7 +9176,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A439" s="3">
+      <c r="A439">
         <v>13</v>
       </c>
       <c r="B439">
@@ -9009,7 +9184,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A440" s="3">
+      <c r="A440">
         <v>11</v>
       </c>
       <c r="B440">
@@ -9017,7 +9192,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A441" s="3">
+      <c r="A441">
         <v>19</v>
       </c>
       <c r="B441">
@@ -9025,7 +9200,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A442" s="3">
+      <c r="A442">
         <v>12</v>
       </c>
       <c r="B442">
@@ -9033,7 +9208,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A443" s="3">
+      <c r="A443">
         <v>24</v>
       </c>
       <c r="B443">
@@ -9041,7 +9216,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A444" s="3">
+      <c r="A444">
         <v>10</v>
       </c>
       <c r="B444">
@@ -9049,7 +9224,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A445" s="3">
+      <c r="A445">
         <v>2</v>
       </c>
       <c r="B445">
@@ -9057,7 +9232,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A446" s="3">
+      <c r="A446">
         <v>16</v>
       </c>
       <c r="B446">
@@ -9065,7 +9240,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A447" s="3">
+      <c r="A447">
         <v>4</v>
       </c>
       <c r="B447">
@@ -9073,7 +9248,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A448" s="3">
+      <c r="A448">
         <v>8</v>
       </c>
       <c r="B448">
@@ -9081,7 +9256,7 @@
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A449" s="3">
+      <c r="A449">
         <v>23</v>
       </c>
       <c r="B449">
@@ -9089,21 +9264,15 @@
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A450" s="3">
+      <c r="A450">
         <v>7</v>
       </c>
       <c r="B450">
         <v>6.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A451" s="3"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A452" s="3"/>
-    </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A453" s="3" t="s">
+      <c r="A453" t="s">
         <v>27</v>
       </c>
       <c r="B453" t="s">
@@ -9114,7 +9283,6 @@
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A454" s="3"/>
       <c r="B454" t="s">
         <v>21</v>
       </c>
@@ -9135,7 +9303,7 @@
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A455" s="3">
+      <c r="A455">
         <v>14</v>
       </c>
       <c r="B455">
@@ -9152,7 +9320,7 @@
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A456" s="3">
+      <c r="A456">
         <v>17</v>
       </c>
       <c r="B456">
@@ -9169,7 +9337,7 @@
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A457" s="3">
+      <c r="A457">
         <v>6</v>
       </c>
       <c r="B457">
@@ -9186,7 +9354,7 @@
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A458" s="3">
+      <c r="A458">
         <v>5</v>
       </c>
       <c r="B458">
@@ -9203,7 +9371,7 @@
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A459" s="3">
+      <c r="A459">
         <v>9</v>
       </c>
       <c r="B459">
@@ -9220,7 +9388,7 @@
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A460" s="3">
+      <c r="A460">
         <v>22</v>
       </c>
       <c r="B460">
@@ -9237,7 +9405,7 @@
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A461" s="3">
+      <c r="A461">
         <v>1</v>
       </c>
       <c r="B461">
@@ -9254,7 +9422,7 @@
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A462" s="3">
+      <c r="A462">
         <v>18</v>
       </c>
       <c r="B462">
@@ -9271,7 +9439,7 @@
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A463" s="3">
+      <c r="A463">
         <v>0</v>
       </c>
       <c r="B463">
@@ -9288,7 +9456,7 @@
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A464" s="3">
+      <c r="A464">
         <v>20</v>
       </c>
       <c r="B464">
@@ -9305,7 +9473,7 @@
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A465" s="3" t="s">
+      <c r="A465" t="s">
         <v>14</v>
       </c>
       <c r="B465" t="s">
@@ -9313,7 +9481,6 @@
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A466" s="3"/>
       <c r="B466" t="s">
         <v>21</v>
       </c>
@@ -9334,7 +9501,7 @@
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A467" s="3">
+      <c r="A467">
         <v>24</v>
       </c>
       <c r="B467">
@@ -9348,7 +9515,7 @@
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A468" s="3">
+      <c r="A468">
         <v>19</v>
       </c>
       <c r="B468">
@@ -9362,7 +9529,7 @@
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A469" s="3">
+      <c r="A469">
         <v>0</v>
       </c>
       <c r="B469">
@@ -9376,7 +9543,7 @@
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A470" s="3">
+      <c r="A470">
         <v>1</v>
       </c>
       <c r="B470">
@@ -9390,7 +9557,7 @@
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A471" s="3">
+      <c r="A471">
         <v>22</v>
       </c>
       <c r="B471">
@@ -9404,7 +9571,7 @@
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A472" s="3">
+      <c r="A472">
         <v>13</v>
       </c>
       <c r="B472">
@@ -9418,7 +9585,7 @@
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A473" s="3">
+      <c r="A473">
         <v>14</v>
       </c>
       <c r="B473">
@@ -9432,7 +9599,7 @@
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A474" s="3">
+      <c r="A474">
         <v>12</v>
       </c>
       <c r="B474">
@@ -9446,7 +9613,7 @@
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A475" s="3">
+      <c r="A475">
         <v>20</v>
       </c>
       <c r="B475">
@@ -9460,7 +9627,7 @@
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A476" s="3">
+      <c r="A476">
         <v>15</v>
       </c>
       <c r="B476">
@@ -9474,7 +9641,7 @@
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A477" s="3">
+      <c r="A477">
         <v>5</v>
       </c>
       <c r="B477">
@@ -9488,7 +9655,7 @@
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A478" s="3">
+      <c r="A478">
         <v>3</v>
       </c>
       <c r="B478">
@@ -9502,7 +9669,7 @@
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A479" s="3">
+      <c r="A479">
         <v>6</v>
       </c>
       <c r="B479">
@@ -9516,7 +9683,7 @@
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A480" s="3">
+      <c r="A480">
         <v>4</v>
       </c>
       <c r="B480">
@@ -9530,7 +9697,7 @@
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481" s="3">
+      <c r="A481">
         <v>7</v>
       </c>
       <c r="B481">
@@ -9544,7 +9711,7 @@
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482" s="3">
+      <c r="A482">
         <v>23</v>
       </c>
       <c r="B482">
@@ -9558,7 +9725,7 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A483" s="3">
+      <c r="A483">
         <v>21</v>
       </c>
       <c r="B483">
@@ -9572,7 +9739,7 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A484" s="3">
+      <c r="A484">
         <v>10</v>
       </c>
       <c r="B484">
@@ -9586,7 +9753,7 @@
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A485" s="3">
+      <c r="A485">
         <v>11</v>
       </c>
       <c r="B485">
@@ -9600,7 +9767,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A486" s="3">
+      <c r="A486">
         <v>9</v>
       </c>
       <c r="B486">
@@ -9614,7 +9781,7 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A487" s="3">
+      <c r="A487">
         <v>17</v>
       </c>
       <c r="B487">
@@ -9628,7 +9795,7 @@
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A488" s="3">
+      <c r="A488">
         <v>18</v>
       </c>
       <c r="B488">
@@ -9642,7 +9809,7 @@
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A489" s="3">
+      <c r="A489">
         <v>2</v>
       </c>
       <c r="B489">
@@ -9656,7 +9823,7 @@
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A490" s="3">
+      <c r="A490">
         <v>16</v>
       </c>
       <c r="B490">
@@ -9670,7 +9837,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A491" s="3">
+      <c r="A491">
         <v>8</v>
       </c>
       <c r="B491">
@@ -9683,11 +9850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A492" s="3"/>
-    </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A493" s="3"/>
       <c r="B493" t="s">
         <v>26</v>
       </c>
@@ -9696,7 +9859,7 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A494" s="3">
+      <c r="A494">
         <v>24</v>
       </c>
       <c r="B494">
@@ -9704,7 +9867,7 @@
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A495" s="3">
+      <c r="A495">
         <v>19</v>
       </c>
       <c r="B495">
@@ -9712,7 +9875,7 @@
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A496" s="3">
+      <c r="A496">
         <v>0</v>
       </c>
       <c r="B496">
@@ -9720,7 +9883,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A497" s="3">
+      <c r="A497">
         <v>1</v>
       </c>
       <c r="B497">
@@ -9728,7 +9891,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A498" s="3">
+      <c r="A498">
         <v>22</v>
       </c>
       <c r="B498">
@@ -9736,7 +9899,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A499" s="3">
+      <c r="A499">
         <v>13</v>
       </c>
       <c r="B499">
@@ -9744,7 +9907,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A500" s="3">
+      <c r="A500">
         <v>14</v>
       </c>
       <c r="B500">
@@ -9752,7 +9915,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A501" s="3">
+      <c r="A501">
         <v>12</v>
       </c>
       <c r="B501">
@@ -9760,7 +9923,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A502" s="3">
+      <c r="A502">
         <v>20</v>
       </c>
       <c r="B502">
@@ -9768,7 +9931,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A503" s="3">
+      <c r="A503">
         <v>15</v>
       </c>
       <c r="B503">
@@ -9776,7 +9939,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A504" s="3">
+      <c r="A504">
         <v>5</v>
       </c>
       <c r="B504">
@@ -9784,7 +9947,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A505" s="3">
+      <c r="A505">
         <v>3</v>
       </c>
       <c r="B505">
@@ -9792,7 +9955,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A506" s="3">
+      <c r="A506">
         <v>6</v>
       </c>
       <c r="B506">
@@ -9800,7 +9963,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A507" s="3">
+      <c r="A507">
         <v>4</v>
       </c>
       <c r="B507">
@@ -9808,7 +9971,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A508" s="3">
+      <c r="A508">
         <v>7</v>
       </c>
       <c r="B508">
@@ -9816,7 +9979,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A509" s="3">
+      <c r="A509">
         <v>23</v>
       </c>
       <c r="B509">
@@ -9824,7 +9987,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A510" s="3">
+      <c r="A510">
         <v>21</v>
       </c>
       <c r="B510">
@@ -9832,7 +9995,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A511" s="3">
+      <c r="A511">
         <v>10</v>
       </c>
       <c r="B511">
@@ -9840,7 +10003,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A512" s="3">
+      <c r="A512">
         <v>11</v>
       </c>
       <c r="B512">
@@ -9848,7 +10011,7 @@
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A513" s="3">
+      <c r="A513">
         <v>9</v>
       </c>
       <c r="B513">
@@ -9856,7 +10019,7 @@
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A514" s="3">
+      <c r="A514">
         <v>17</v>
       </c>
       <c r="B514">
@@ -9864,7 +10027,7 @@
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A515" s="3">
+      <c r="A515">
         <v>18</v>
       </c>
       <c r="B515">
@@ -9872,7 +10035,7 @@
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A516" s="3">
+      <c r="A516">
         <v>2</v>
       </c>
       <c r="B516">
@@ -9880,7 +10043,7 @@
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A517" s="3">
+      <c r="A517">
         <v>16</v>
       </c>
       <c r="B517">
@@ -9888,21 +10051,15 @@
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A518" s="3">
+      <c r="A518">
         <v>8</v>
       </c>
       <c r="B518">
         <v>9.4800000000000006E-3</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A519" s="3"/>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A520" s="3"/>
-    </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A521" s="3" t="s">
+      <c r="A521" t="s">
         <v>27</v>
       </c>
       <c r="B521" t="s">
@@ -9913,7 +10070,6 @@
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A522" s="3"/>
       <c r="B522" t="s">
         <v>21</v>
       </c>
@@ -9934,7 +10090,7 @@
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A523" s="3">
+      <c r="A523">
         <v>24</v>
       </c>
       <c r="B523">
@@ -9951,7 +10107,7 @@
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A524" s="3">
+      <c r="A524">
         <v>19</v>
       </c>
       <c r="B524">
@@ -9968,7 +10124,7 @@
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A525" s="3">
+      <c r="A525">
         <v>0</v>
       </c>
       <c r="B525">
@@ -9985,7 +10141,7 @@
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A526" s="3">
+      <c r="A526">
         <v>1</v>
       </c>
       <c r="B526">
@@ -10002,7 +10158,7 @@
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A527" s="3">
+      <c r="A527">
         <v>22</v>
       </c>
       <c r="B527">
@@ -10019,7 +10175,7 @@
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A528" s="3">
+      <c r="A528">
         <v>13</v>
       </c>
       <c r="B528">
@@ -10036,7 +10192,7 @@
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A529" s="3">
+      <c r="A529">
         <v>14</v>
       </c>
       <c r="B529">
@@ -10053,7 +10209,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A530" s="3">
+      <c r="A530">
         <v>12</v>
       </c>
       <c r="B530">
@@ -10070,7 +10226,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A531" s="3">
+      <c r="A531">
         <v>20</v>
       </c>
       <c r="B531">
@@ -10086,11 +10242,8 @@
         <v>0.21126600000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A532" s="3"/>
-    </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A533" s="3" t="s">
+      <c r="A533" t="s">
         <v>123</v>
       </c>
       <c r="B533" t="s">
@@ -10098,7 +10251,6 @@
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A534" s="3"/>
       <c r="B534" t="s">
         <v>21</v>
       </c>
@@ -10119,7 +10271,7 @@
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A535" s="3">
+      <c r="A535">
         <v>30</v>
       </c>
       <c r="B535">
@@ -10133,7 +10285,7 @@
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A536" s="3">
+      <c r="A536">
         <v>65</v>
       </c>
       <c r="B536">
@@ -10147,7 +10299,7 @@
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A537" s="3">
+      <c r="A537">
         <v>35</v>
       </c>
       <c r="B537">
@@ -10161,7 +10313,7 @@
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A538" s="3">
+      <c r="A538">
         <v>31</v>
       </c>
       <c r="B538">
@@ -10175,7 +10327,7 @@
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A539" s="3">
+      <c r="A539">
         <v>5</v>
       </c>
       <c r="B539">
@@ -10189,7 +10341,7 @@
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A540" s="3" t="s">
+      <c r="A540" t="s">
         <v>80</v>
       </c>
       <c r="B540" t="s">
@@ -10203,7 +10355,7 @@
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A541" s="3">
+      <c r="A541">
         <v>38</v>
       </c>
       <c r="B541">
@@ -10217,7 +10369,7 @@
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A542" s="3">
+      <c r="A542">
         <v>81</v>
       </c>
       <c r="B542">
@@ -10231,7 +10383,7 @@
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A543" s="3">
+      <c r="A543">
         <v>6</v>
       </c>
       <c r="B543">
@@ -10245,7 +10397,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A544" s="3">
+      <c r="A544">
         <v>70</v>
       </c>
       <c r="B544">
@@ -10259,7 +10411,7 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A545" s="3">
+      <c r="A545">
         <v>43</v>
       </c>
       <c r="B545">
@@ -10272,11 +10424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A546" s="3"/>
-    </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A547" s="3"/>
       <c r="B547" t="s">
         <v>26</v>
       </c>
@@ -10285,7 +10433,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A548" s="3">
+      <c r="A548">
         <v>30</v>
       </c>
       <c r="B548">
@@ -10293,7 +10441,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A549" s="3">
+      <c r="A549">
         <v>65</v>
       </c>
       <c r="B549">
@@ -10301,7 +10449,7 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A550" s="3">
+      <c r="A550">
         <v>35</v>
       </c>
       <c r="B550">
@@ -10309,7 +10457,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A551" s="3">
+      <c r="A551">
         <v>31</v>
       </c>
       <c r="B551">
@@ -10317,7 +10465,7 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A552" s="3">
+      <c r="A552">
         <v>5</v>
       </c>
       <c r="B552">
@@ -10325,7 +10473,7 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A553" s="3" t="s">
+      <c r="A553" t="s">
         <v>80</v>
       </c>
       <c r="B553" t="s">
@@ -10333,7 +10481,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A554" s="3">
+      <c r="A554">
         <v>38</v>
       </c>
       <c r="B554">
@@ -10341,7 +10489,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A555" s="3">
+      <c r="A555">
         <v>81</v>
       </c>
       <c r="B555">
@@ -10349,7 +10497,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A556" s="3">
+      <c r="A556">
         <v>6</v>
       </c>
       <c r="B556">
@@ -10357,7 +10505,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A557" s="3">
+      <c r="A557">
         <v>70</v>
       </c>
       <c r="B557">
@@ -10365,18 +10513,15 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A558" s="3">
+      <c r="A558">
         <v>43</v>
       </c>
       <c r="B558">
         <v>4.646E-3</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A559" s="3"/>
-    </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A560" s="3" t="s">
+      <c r="A560" t="s">
         <v>87</v>
       </c>
       <c r="B560" t="s">
@@ -10392,14 +10537,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A561" s="3"/>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A562" s="3"/>
-    </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A563" s="3" t="s">
+      <c r="A563" t="s">
         <v>27</v>
       </c>
       <c r="B563" t="s">
@@ -10410,7 +10549,6 @@
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A564" s="3"/>
       <c r="B564" t="s">
         <v>21</v>
       </c>
@@ -10431,7 +10569,7 @@
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A565" s="3">
+      <c r="A565">
         <v>30</v>
       </c>
       <c r="B565">
@@ -10445,7 +10583,7 @@
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A566" s="3">
+      <c r="A566">
         <v>65</v>
       </c>
       <c r="B566">
@@ -10459,7 +10597,7 @@
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A567" s="3">
+      <c r="A567">
         <v>35</v>
       </c>
       <c r="B567">
@@ -10472,11 +10610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A568" s="3"/>
-    </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A569" s="3"/>
       <c r="B569" t="s">
         <v>26</v>
       </c>
@@ -10485,7 +10619,7 @@
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A570" s="3">
+      <c r="A570">
         <v>30</v>
       </c>
       <c r="B570">
@@ -10493,7 +10627,7 @@
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A571" s="3">
+      <c r="A571">
         <v>65</v>
       </c>
       <c r="B571">
@@ -10501,7 +10635,7 @@
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A572" s="3">
+      <c r="A572">
         <v>35</v>
       </c>
       <c r="B572">
@@ -10509,7 +10643,7 @@
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A573" s="3" t="s">
+      <c r="A573" t="s">
         <v>14</v>
       </c>
       <c r="B573" t="s">
@@ -10517,7 +10651,6 @@
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A574" s="3"/>
       <c r="B574" t="s">
         <v>21</v>
       </c>
@@ -10538,7 +10671,7 @@
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A575" s="3">
+      <c r="A575">
         <v>65</v>
       </c>
       <c r="B575">
@@ -10552,7 +10685,7 @@
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A576" s="3">
+      <c r="A576">
         <v>31</v>
       </c>
       <c r="B576">
@@ -10566,7 +10699,7 @@
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A577" s="3">
+      <c r="A577">
         <v>49</v>
       </c>
       <c r="B577">
@@ -10580,7 +10713,7 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="3">
+      <c r="A578">
         <v>86</v>
       </c>
       <c r="B578">
@@ -10594,7 +10727,7 @@
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A579" s="3">
+      <c r="A579">
         <v>25</v>
       </c>
       <c r="B579">
@@ -10608,7 +10741,7 @@
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A580" s="3" t="s">
+      <c r="A580" t="s">
         <v>80</v>
       </c>
       <c r="B580" t="s">
@@ -10622,7 +10755,7 @@
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="3">
+      <c r="A581">
         <v>14</v>
       </c>
       <c r="B581">
@@ -10636,7 +10769,7 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="3">
+      <c r="A582">
         <v>74</v>
       </c>
       <c r="B582">
@@ -10650,7 +10783,7 @@
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A583" s="3">
+      <c r="A583">
         <v>85</v>
       </c>
       <c r="B583">
@@ -10664,7 +10797,7 @@
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A584" s="3">
+      <c r="A584">
         <v>51</v>
       </c>
       <c r="B584">
@@ -10678,7 +10811,7 @@
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A585" s="3">
+      <c r="A585">
         <v>45</v>
       </c>
       <c r="B585">
@@ -10691,11 +10824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A586" s="3"/>
-    </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A587" s="3"/>
       <c r="B587" t="s">
         <v>26</v>
       </c>
@@ -10704,7 +10833,7 @@
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A588" s="3">
+      <c r="A588">
         <v>65</v>
       </c>
       <c r="B588">
@@ -10712,7 +10841,7 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A589" s="3">
+      <c r="A589">
         <v>31</v>
       </c>
       <c r="B589">
@@ -10720,7 +10849,7 @@
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A590" s="3">
+      <c r="A590">
         <v>49</v>
       </c>
       <c r="B590">
@@ -10728,7 +10857,7 @@
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A591" s="3">
+      <c r="A591">
         <v>86</v>
       </c>
       <c r="B591">
@@ -10736,7 +10865,7 @@
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A592" s="3">
+      <c r="A592">
         <v>25</v>
       </c>
       <c r="B592">
@@ -10744,7 +10873,7 @@
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A593" s="3" t="s">
+      <c r="A593" t="s">
         <v>80</v>
       </c>
       <c r="B593" t="s">
@@ -10752,7 +10881,7 @@
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A594" s="3">
+      <c r="A594">
         <v>14</v>
       </c>
       <c r="B594">
@@ -10760,7 +10889,7 @@
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A595" s="3">
+      <c r="A595">
         <v>74</v>
       </c>
       <c r="B595">
@@ -10768,7 +10897,7 @@
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A596" s="3">
+      <c r="A596">
         <v>85</v>
       </c>
       <c r="B596">
@@ -10776,7 +10905,7 @@
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A597" s="3">
+      <c r="A597">
         <v>51</v>
       </c>
       <c r="B597">
@@ -10784,18 +10913,15 @@
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A598" s="3">
+      <c r="A598">
         <v>45</v>
       </c>
       <c r="B598">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A599" s="3"/>
-    </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A600" s="3" t="s">
+      <c r="A600" t="s">
         <v>87</v>
       </c>
       <c r="B600" t="s">
@@ -10811,14 +10937,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A601" s="3"/>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A602" s="3"/>
-    </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A603" s="3" t="s">
+      <c r="A603" t="s">
         <v>27</v>
       </c>
       <c r="B603" t="s">
@@ -10829,7 +10949,6 @@
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A604" s="3"/>
       <c r="B604" t="s">
         <v>21</v>
       </c>
@@ -10850,7 +10969,7 @@
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A605" s="3">
+      <c r="A605">
         <v>65</v>
       </c>
       <c r="B605">
@@ -10864,7 +10983,7 @@
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A606" s="3">
+      <c r="A606">
         <v>31</v>
       </c>
       <c r="B606">
@@ -10878,7 +10997,7 @@
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A607" s="3">
+      <c r="A607">
         <v>49</v>
       </c>
       <c r="B607">
@@ -10892,7 +11011,7 @@
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A608" s="3">
+      <c r="A608">
         <v>86</v>
       </c>
       <c r="B608">
@@ -10905,11 +11024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A609" s="3"/>
-    </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A610" s="3"/>
       <c r="B610" t="s">
         <v>26</v>
       </c>
@@ -10918,7 +11033,7 @@
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A611" s="3">
+      <c r="A611">
         <v>65</v>
       </c>
       <c r="B611">
@@ -10926,7 +11041,7 @@
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A612" s="3">
+      <c r="A612">
         <v>31</v>
       </c>
       <c r="B612">
@@ -10934,7 +11049,7 @@
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A613" s="3">
+      <c r="A613">
         <v>49</v>
       </c>
       <c r="B613">
@@ -10942,7 +11057,7 @@
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A614" s="3">
+      <c r="A614">
         <v>86</v>
       </c>
       <c r="B614">
@@ -10950,7 +11065,7 @@
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A615" s="3" t="s">
+      <c r="A615" t="s">
         <v>14</v>
       </c>
       <c r="B615" t="s">
@@ -10958,7 +11073,6 @@
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A616" s="3"/>
       <c r="B616" t="s">
         <v>21</v>
       </c>
@@ -10979,7 +11093,7 @@
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A617" s="3">
+      <c r="A617">
         <v>54</v>
       </c>
       <c r="B617">
@@ -10993,7 +11107,7 @@
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A618" s="3">
+      <c r="A618">
         <v>30</v>
       </c>
       <c r="B618">
@@ -11007,7 +11121,7 @@
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A619" s="3">
+      <c r="A619">
         <v>107</v>
       </c>
       <c r="B619">
@@ -11021,7 +11135,7 @@
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A620" s="3">
+      <c r="A620">
         <v>84</v>
       </c>
       <c r="B620">
@@ -11035,7 +11149,7 @@
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A621" s="3">
+      <c r="A621">
         <v>89</v>
       </c>
       <c r="B621">
@@ -11049,7 +11163,7 @@
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A622" s="3" t="s">
+      <c r="A622" t="s">
         <v>80</v>
       </c>
       <c r="B622" t="s">
@@ -11063,7 +11177,7 @@
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A623" s="3">
+      <c r="A623">
         <v>11</v>
       </c>
       <c r="B623">
@@ -11077,7 +11191,7 @@
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A624" s="3">
+      <c r="A624">
         <v>110</v>
       </c>
       <c r="B624">
@@ -11091,7 +11205,7 @@
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A625" s="3">
+      <c r="A625">
         <v>55</v>
       </c>
       <c r="B625">
@@ -11105,7 +11219,7 @@
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A626" s="3">
+      <c r="A626">
         <v>27</v>
       </c>
       <c r="B626">
@@ -11119,7 +11233,7 @@
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A627" s="3">
+      <c r="A627">
         <v>91</v>
       </c>
       <c r="B627">
@@ -11132,11 +11246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A628" s="3"/>
-    </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A629" s="3"/>
       <c r="B629" t="s">
         <v>26</v>
       </c>
@@ -11145,7 +11255,7 @@
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A630" s="3">
+      <c r="A630">
         <v>54</v>
       </c>
       <c r="B630">
@@ -11153,7 +11263,7 @@
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A631" s="3">
+      <c r="A631">
         <v>30</v>
       </c>
       <c r="B631">
@@ -11161,7 +11271,7 @@
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A632" s="3">
+      <c r="A632">
         <v>107</v>
       </c>
       <c r="B632">
@@ -11169,7 +11279,7 @@
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A633" s="3">
+      <c r="A633">
         <v>84</v>
       </c>
       <c r="B633">
@@ -11177,7 +11287,7 @@
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A634" s="3">
+      <c r="A634">
         <v>89</v>
       </c>
       <c r="B634">
@@ -11185,7 +11295,7 @@
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A635" s="3" t="s">
+      <c r="A635" t="s">
         <v>80</v>
       </c>
       <c r="B635" t="s">
@@ -11193,7 +11303,7 @@
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A636" s="3">
+      <c r="A636">
         <v>11</v>
       </c>
       <c r="B636">
@@ -11201,7 +11311,7 @@
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A637" s="3">
+      <c r="A637">
         <v>110</v>
       </c>
       <c r="B637">
@@ -11209,7 +11319,7 @@
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A638" s="3">
+      <c r="A638">
         <v>55</v>
       </c>
       <c r="B638">
@@ -11217,7 +11327,7 @@
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A639" s="3">
+      <c r="A639">
         <v>27</v>
       </c>
       <c r="B639">
@@ -11225,18 +11335,15 @@
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A640" s="3">
+      <c r="A640">
         <v>91</v>
       </c>
       <c r="B640">
         <v>1.0399999999999999E-4</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A641" s="3"/>
-    </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A642" s="3" t="s">
+      <c r="A642" t="s">
         <v>87</v>
       </c>
       <c r="B642" t="s">
@@ -11252,14 +11359,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A643" s="3"/>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A644" s="3"/>
-    </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A645" s="3" t="s">
+      <c r="A645" t="s">
         <v>27</v>
       </c>
       <c r="B645" t="s">
@@ -11270,7 +11371,6 @@
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A646" s="3"/>
       <c r="B646" t="s">
         <v>21</v>
       </c>
@@ -11291,7 +11391,7 @@
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A647" s="3">
+      <c r="A647">
         <v>54</v>
       </c>
       <c r="B647">
@@ -11305,7 +11405,7 @@
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A648" s="3">
+      <c r="A648">
         <v>30</v>
       </c>
       <c r="B648">
@@ -11319,7 +11419,7 @@
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A649" s="3">
+      <c r="A649">
         <v>107</v>
       </c>
       <c r="B649">
@@ -11332,11 +11432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A650" s="3"/>
-    </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A651" s="3"/>
       <c r="B651" t="s">
         <v>26</v>
       </c>
@@ -11345,7 +11441,7 @@
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A652" s="3">
+      <c r="A652">
         <v>54</v>
       </c>
       <c r="B652">
@@ -11353,7 +11449,7 @@
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A653" s="3">
+      <c r="A653">
         <v>30</v>
       </c>
       <c r="B653">
@@ -11361,7 +11457,7 @@
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A654" s="3">
+      <c r="A654">
         <v>107</v>
       </c>
       <c r="B654">
@@ -11369,7 +11465,7 @@
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A655" s="3" t="s">
+      <c r="A655" t="s">
         <v>14</v>
       </c>
       <c r="B655" t="s">
@@ -11377,7 +11473,6 @@
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A656" s="3"/>
       <c r="B656" t="s">
         <v>21</v>
       </c>
@@ -11398,7 +11493,7 @@
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A657" s="3">
+      <c r="A657">
         <v>28</v>
       </c>
       <c r="B657">
@@ -11412,7 +11507,7 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A658" s="3">
+      <c r="A658">
         <v>59</v>
       </c>
       <c r="B658">
@@ -11426,7 +11521,7 @@
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A659" s="3">
+      <c r="A659">
         <v>103</v>
       </c>
       <c r="B659">
@@ -11440,7 +11535,7 @@
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A660" s="3">
+      <c r="A660">
         <v>35</v>
       </c>
       <c r="B660">
@@ -11454,7 +11549,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A661" s="3">
+      <c r="A661">
         <v>34</v>
       </c>
       <c r="B661">
@@ -11468,7 +11563,7 @@
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A662" s="3" t="s">
+      <c r="A662" t="s">
         <v>80</v>
       </c>
       <c r="B662" t="s">
@@ -11482,7 +11577,7 @@
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A663" s="3">
+      <c r="A663">
         <v>36</v>
       </c>
       <c r="B663">
@@ -11496,7 +11591,7 @@
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A664" s="3">
+      <c r="A664">
         <v>88</v>
       </c>
       <c r="B664">
@@ -11510,7 +11605,7 @@
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A665" s="3">
+      <c r="A665">
         <v>84</v>
       </c>
       <c r="B665">
@@ -11524,7 +11619,7 @@
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A666" s="3">
+      <c r="A666">
         <v>21</v>
       </c>
       <c r="B666">
@@ -11538,7 +11633,7 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A667" s="3">
+      <c r="A667">
         <v>40</v>
       </c>
       <c r="B667">
@@ -11551,11 +11646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A668" s="3"/>
-    </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A669" s="3"/>
       <c r="B669" t="s">
         <v>26</v>
       </c>
@@ -11564,7 +11655,7 @@
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A670" s="3">
+      <c r="A670">
         <v>28</v>
       </c>
       <c r="B670">
@@ -11572,7 +11663,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A671" s="3">
+      <c r="A671">
         <v>59</v>
       </c>
       <c r="B671">
@@ -11580,7 +11671,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A672" s="3">
+      <c r="A672">
         <v>103</v>
       </c>
       <c r="B672">
@@ -11588,7 +11679,7 @@
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A673" s="3">
+      <c r="A673">
         <v>35</v>
       </c>
       <c r="B673">
@@ -11596,7 +11687,7 @@
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A674" s="3">
+      <c r="A674">
         <v>34</v>
       </c>
       <c r="B674">
@@ -11604,7 +11695,7 @@
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A675" s="3" t="s">
+      <c r="A675" t="s">
         <v>80</v>
       </c>
       <c r="B675" t="s">
@@ -11612,7 +11703,7 @@
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A676" s="3">
+      <c r="A676">
         <v>36</v>
       </c>
       <c r="B676">
@@ -11620,7 +11711,7 @@
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A677" s="3">
+      <c r="A677">
         <v>88</v>
       </c>
       <c r="B677">
@@ -11628,7 +11719,7 @@
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A678" s="3">
+      <c r="A678">
         <v>84</v>
       </c>
       <c r="B678">
@@ -11636,7 +11727,7 @@
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A679" s="3">
+      <c r="A679">
         <v>21</v>
       </c>
       <c r="B679">
@@ -11644,18 +11735,15 @@
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A680" s="3">
+      <c r="A680">
         <v>40</v>
       </c>
       <c r="B680">
         <v>4.3689999999999996E-3</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A681" s="3"/>
-    </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A682" s="3" t="s">
+      <c r="A682" t="s">
         <v>87</v>
       </c>
       <c r="B682" t="s">
@@ -11671,14 +11759,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A683" s="3"/>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A684" s="3"/>
-    </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A685" s="3" t="s">
+      <c r="A685" t="s">
         <v>27</v>
       </c>
       <c r="B685" t="s">
@@ -11689,7 +11771,6 @@
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A686" s="3"/>
       <c r="B686" t="s">
         <v>21</v>
       </c>
@@ -11710,7 +11791,7 @@
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A687" s="3">
+      <c r="A687">
         <v>28</v>
       </c>
       <c r="B687">
@@ -11724,7 +11805,7 @@
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A688" s="3">
+      <c r="A688">
         <v>59</v>
       </c>
       <c r="B688">
@@ -11738,7 +11819,7 @@
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A689" s="3">
+      <c r="A689">
         <v>103</v>
       </c>
       <c r="B689">
@@ -11752,7 +11833,7 @@
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A690" s="3">
+      <c r="A690">
         <v>35</v>
       </c>
       <c r="B690">
@@ -11766,7 +11847,7 @@
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A691" s="3">
+      <c r="A691">
         <v>34</v>
       </c>
       <c r="B691">
@@ -11779,11 +11860,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A692" s="3"/>
-    </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A693" s="3"/>
       <c r="B693" t="s">
         <v>26</v>
       </c>
@@ -11792,7 +11869,7 @@
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A694" s="3">
+      <c r="A694">
         <v>28</v>
       </c>
       <c r="B694">
@@ -11800,7 +11877,7 @@
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A695" s="3">
+      <c r="A695">
         <v>59</v>
       </c>
       <c r="B695">
@@ -11808,7 +11885,7 @@
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A696" s="3">
+      <c r="A696">
         <v>103</v>
       </c>
       <c r="B696">
@@ -11816,7 +11893,7 @@
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A697" s="3">
+      <c r="A697">
         <v>35</v>
       </c>
       <c r="B697">
@@ -11824,7 +11901,7 @@
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A698" s="3">
+      <c r="A698">
         <v>34</v>
       </c>
       <c r="B698">
@@ -11832,7 +11909,7 @@
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A699" s="3" t="s">
+      <c r="A699" t="s">
         <v>116</v>
       </c>
       <c r="B699" t="s">
@@ -11852,7 +11929,7 @@
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A700" s="3" t="s">
+      <c r="A700" t="s">
         <v>119</v>
       </c>
       <c r="B700">
@@ -11872,7 +11949,6 @@
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A701" s="3"/>
       <c r="B701">
         <v>0.76855227999999998</v>
       </c>
@@ -11893,7 +11969,6 @@
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A702" s="3"/>
       <c r="B702">
         <v>1.0096427299999999</v>
       </c>
